--- a/raw data/samplinglist_updated.xlsx
+++ b/raw data/samplinglist_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ant28\OneDrive - Duke University\Documents\Duke University\Research\_HBEF\chla\hbef_chla\raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/athellma_ad_unc_edu/Documents/Documents/Duke University/Research/_HBEF/chla/hbef_chla/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{50E0B27C-21EE-4777-9358-B248CE205576}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{46EB28BF-2307-40D8-9E86-FC1F19B338AE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{50E0B27C-21EE-4777-9358-B248CE205576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECDABC4-3BD1-445F-A94F-C89B760C7B32}"/>
   <bookViews>
-    <workbookView xWindow="30860" yWindow="-1640" windowWidth="16550" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplinglist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="2299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="2731">
   <si>
     <t>CH190001</t>
   </si>
@@ -6921,6 +6921,1302 @@
   </si>
   <si>
     <t>CH210651</t>
+  </si>
+  <si>
+    <t>CH220001</t>
+  </si>
+  <si>
+    <t>CH220002</t>
+  </si>
+  <si>
+    <t>CH220003</t>
+  </si>
+  <si>
+    <t>CH220004</t>
+  </si>
+  <si>
+    <t>CH220005</t>
+  </si>
+  <si>
+    <t>CH220006</t>
+  </si>
+  <si>
+    <t>CH220007</t>
+  </si>
+  <si>
+    <t>CH220008</t>
+  </si>
+  <si>
+    <t>CH220009</t>
+  </si>
+  <si>
+    <t>CH220010</t>
+  </si>
+  <si>
+    <t>CH220011</t>
+  </si>
+  <si>
+    <t>CH220012</t>
+  </si>
+  <si>
+    <t>CH220015</t>
+  </si>
+  <si>
+    <t>CH220016</t>
+  </si>
+  <si>
+    <t>CH220017</t>
+  </si>
+  <si>
+    <t>CH220018</t>
+  </si>
+  <si>
+    <t>CH220019</t>
+  </si>
+  <si>
+    <t>CH220020</t>
+  </si>
+  <si>
+    <t>CH220021</t>
+  </si>
+  <si>
+    <t>CH220022</t>
+  </si>
+  <si>
+    <t>CH220023</t>
+  </si>
+  <si>
+    <t>CH220024</t>
+  </si>
+  <si>
+    <t>CH220025</t>
+  </si>
+  <si>
+    <t>CH220026</t>
+  </si>
+  <si>
+    <t>CH220027</t>
+  </si>
+  <si>
+    <t>CH220028</t>
+  </si>
+  <si>
+    <t>CH220029</t>
+  </si>
+  <si>
+    <t>CH220030</t>
+  </si>
+  <si>
+    <t>CH220031</t>
+  </si>
+  <si>
+    <t>CH220032</t>
+  </si>
+  <si>
+    <t>CH220033</t>
+  </si>
+  <si>
+    <t>CH220034</t>
+  </si>
+  <si>
+    <t>CH220035</t>
+  </si>
+  <si>
+    <t>CH220036</t>
+  </si>
+  <si>
+    <t>CH220037</t>
+  </si>
+  <si>
+    <t>CH220038</t>
+  </si>
+  <si>
+    <t>CH220039</t>
+  </si>
+  <si>
+    <t>CH220040</t>
+  </si>
+  <si>
+    <t>CH220041</t>
+  </si>
+  <si>
+    <t>CH220042</t>
+  </si>
+  <si>
+    <t>CH220043</t>
+  </si>
+  <si>
+    <t>CH220044</t>
+  </si>
+  <si>
+    <t>CH220045</t>
+  </si>
+  <si>
+    <t>CH220046</t>
+  </si>
+  <si>
+    <t>CH220047</t>
+  </si>
+  <si>
+    <t>CH220048</t>
+  </si>
+  <si>
+    <t>CH220049</t>
+  </si>
+  <si>
+    <t>CH220050</t>
+  </si>
+  <si>
+    <t>CH220051</t>
+  </si>
+  <si>
+    <t>CH220052</t>
+  </si>
+  <si>
+    <t>CH220053</t>
+  </si>
+  <si>
+    <t>CH220054</t>
+  </si>
+  <si>
+    <t>CH220055</t>
+  </si>
+  <si>
+    <t>CH220056</t>
+  </si>
+  <si>
+    <t>CH220057</t>
+  </si>
+  <si>
+    <t>CH220058</t>
+  </si>
+  <si>
+    <t>CH220059</t>
+  </si>
+  <si>
+    <t>CH220060</t>
+  </si>
+  <si>
+    <t>CH220061</t>
+  </si>
+  <si>
+    <t>CH220062</t>
+  </si>
+  <si>
+    <t>CH220063</t>
+  </si>
+  <si>
+    <t>CH220064</t>
+  </si>
+  <si>
+    <t>CH220065</t>
+  </si>
+  <si>
+    <t>CH220066</t>
+  </si>
+  <si>
+    <t>CH220067</t>
+  </si>
+  <si>
+    <t>CH220068</t>
+  </si>
+  <si>
+    <t>CH220069</t>
+  </si>
+  <si>
+    <t>CH220070</t>
+  </si>
+  <si>
+    <t>CH220071</t>
+  </si>
+  <si>
+    <t>CH220072</t>
+  </si>
+  <si>
+    <t>CH220073</t>
+  </si>
+  <si>
+    <t>CH220074</t>
+  </si>
+  <si>
+    <t>CH220075</t>
+  </si>
+  <si>
+    <t>CH220076</t>
+  </si>
+  <si>
+    <t>CH220077</t>
+  </si>
+  <si>
+    <t>CH220078</t>
+  </si>
+  <si>
+    <t>CH220079</t>
+  </si>
+  <si>
+    <t>CH220080</t>
+  </si>
+  <si>
+    <t>CH220081</t>
+  </si>
+  <si>
+    <t>CH220082</t>
+  </si>
+  <si>
+    <t>CH220083</t>
+  </si>
+  <si>
+    <t>CH220084</t>
+  </si>
+  <si>
+    <t>CH220085</t>
+  </si>
+  <si>
+    <t>CH220086</t>
+  </si>
+  <si>
+    <t>CH220087</t>
+  </si>
+  <si>
+    <t>CH220088</t>
+  </si>
+  <si>
+    <t>CH220089</t>
+  </si>
+  <si>
+    <t>CH220090</t>
+  </si>
+  <si>
+    <t>CH220091</t>
+  </si>
+  <si>
+    <t>CH220092</t>
+  </si>
+  <si>
+    <t>CH220093</t>
+  </si>
+  <si>
+    <t>CH220094</t>
+  </si>
+  <si>
+    <t>CH220095</t>
+  </si>
+  <si>
+    <t>CH220096</t>
+  </si>
+  <si>
+    <t>CH220097</t>
+  </si>
+  <si>
+    <t>CH220098</t>
+  </si>
+  <si>
+    <t>CH220099</t>
+  </si>
+  <si>
+    <t>CH220100</t>
+  </si>
+  <si>
+    <t>CH220101</t>
+  </si>
+  <si>
+    <t>CH220102</t>
+  </si>
+  <si>
+    <t>CH220103</t>
+  </si>
+  <si>
+    <t>CH220104</t>
+  </si>
+  <si>
+    <t>CH220105</t>
+  </si>
+  <si>
+    <t>CH220106</t>
+  </si>
+  <si>
+    <t>CH220107</t>
+  </si>
+  <si>
+    <t>CH220108</t>
+  </si>
+  <si>
+    <t>CH220109</t>
+  </si>
+  <si>
+    <t>CH220110</t>
+  </si>
+  <si>
+    <t>CH220111</t>
+  </si>
+  <si>
+    <t>CH220112</t>
+  </si>
+  <si>
+    <t>CH220113</t>
+  </si>
+  <si>
+    <t>CH220114</t>
+  </si>
+  <si>
+    <t>CH220115</t>
+  </si>
+  <si>
+    <t>CH220116</t>
+  </si>
+  <si>
+    <t>CH220117</t>
+  </si>
+  <si>
+    <t>CH220118</t>
+  </si>
+  <si>
+    <t>CH220119</t>
+  </si>
+  <si>
+    <t>CH220120</t>
+  </si>
+  <si>
+    <t>CH220121</t>
+  </si>
+  <si>
+    <t>CH220122</t>
+  </si>
+  <si>
+    <t>CH220123</t>
+  </si>
+  <si>
+    <t>CH220124</t>
+  </si>
+  <si>
+    <t>CH220125</t>
+  </si>
+  <si>
+    <t>CH220126</t>
+  </si>
+  <si>
+    <t>CH220127</t>
+  </si>
+  <si>
+    <t>CH220128</t>
+  </si>
+  <si>
+    <t>CH220129</t>
+  </si>
+  <si>
+    <t>CH220130</t>
+  </si>
+  <si>
+    <t>CH220131</t>
+  </si>
+  <si>
+    <t>CH220132</t>
+  </si>
+  <si>
+    <t>CH220133</t>
+  </si>
+  <si>
+    <t>CH220134</t>
+  </si>
+  <si>
+    <t>CH220135</t>
+  </si>
+  <si>
+    <t>CH220136</t>
+  </si>
+  <si>
+    <t>CH220137</t>
+  </si>
+  <si>
+    <t>CH220138</t>
+  </si>
+  <si>
+    <t>CH220139</t>
+  </si>
+  <si>
+    <t>CH220140</t>
+  </si>
+  <si>
+    <t>CH220141</t>
+  </si>
+  <si>
+    <t>CH220142</t>
+  </si>
+  <si>
+    <t>CH220143</t>
+  </si>
+  <si>
+    <t>CH220144</t>
+  </si>
+  <si>
+    <t>CH220145</t>
+  </si>
+  <si>
+    <t>CH220146</t>
+  </si>
+  <si>
+    <t>CH220147</t>
+  </si>
+  <si>
+    <t>CH220148</t>
+  </si>
+  <si>
+    <t>CH220149</t>
+  </si>
+  <si>
+    <t>CH220150</t>
+  </si>
+  <si>
+    <t>CH220151</t>
+  </si>
+  <si>
+    <t>CH220152</t>
+  </si>
+  <si>
+    <t>CH220153</t>
+  </si>
+  <si>
+    <t>CH220154</t>
+  </si>
+  <si>
+    <t>CH220155</t>
+  </si>
+  <si>
+    <t>CH220156</t>
+  </si>
+  <si>
+    <t>CH220157</t>
+  </si>
+  <si>
+    <t>CH220158</t>
+  </si>
+  <si>
+    <t>CH220159</t>
+  </si>
+  <si>
+    <t>CH220160</t>
+  </si>
+  <si>
+    <t>CH220161</t>
+  </si>
+  <si>
+    <t>CH220162</t>
+  </si>
+  <si>
+    <t>CH220163</t>
+  </si>
+  <si>
+    <t>CH220164</t>
+  </si>
+  <si>
+    <t>CH220165</t>
+  </si>
+  <si>
+    <t>CH220166</t>
+  </si>
+  <si>
+    <t>CH220167</t>
+  </si>
+  <si>
+    <t>CH220168</t>
+  </si>
+  <si>
+    <t>CH220169</t>
+  </si>
+  <si>
+    <t>CH220170</t>
+  </si>
+  <si>
+    <t>CH220171</t>
+  </si>
+  <si>
+    <t>CH220172</t>
+  </si>
+  <si>
+    <t>CH220173</t>
+  </si>
+  <si>
+    <t>CH220174</t>
+  </si>
+  <si>
+    <t>CH220175</t>
+  </si>
+  <si>
+    <t>CH220176</t>
+  </si>
+  <si>
+    <t>CH220177</t>
+  </si>
+  <si>
+    <t>CH220178</t>
+  </si>
+  <si>
+    <t>CH220179</t>
+  </si>
+  <si>
+    <t>CH220180</t>
+  </si>
+  <si>
+    <t>CH220181</t>
+  </si>
+  <si>
+    <t>CH220182</t>
+  </si>
+  <si>
+    <t>CH220183</t>
+  </si>
+  <si>
+    <t>CH220184</t>
+  </si>
+  <si>
+    <t>CH220185</t>
+  </si>
+  <si>
+    <t>CH220186</t>
+  </si>
+  <si>
+    <t>CH220187</t>
+  </si>
+  <si>
+    <t>CH220188</t>
+  </si>
+  <si>
+    <t>CH220189</t>
+  </si>
+  <si>
+    <t>CH220190</t>
+  </si>
+  <si>
+    <t>CH220191</t>
+  </si>
+  <si>
+    <t>CH220192</t>
+  </si>
+  <si>
+    <t>CH220193</t>
+  </si>
+  <si>
+    <t>CH220194</t>
+  </si>
+  <si>
+    <t>CH220195</t>
+  </si>
+  <si>
+    <t>CH220196</t>
+  </si>
+  <si>
+    <t>CH220197</t>
+  </si>
+  <si>
+    <t>CH220198</t>
+  </si>
+  <si>
+    <t>CH220199</t>
+  </si>
+  <si>
+    <t>CH220200</t>
+  </si>
+  <si>
+    <t>CH220201</t>
+  </si>
+  <si>
+    <t>CH220202</t>
+  </si>
+  <si>
+    <t>CH220203</t>
+  </si>
+  <si>
+    <t>CH220204</t>
+  </si>
+  <si>
+    <t>CH220205</t>
+  </si>
+  <si>
+    <t>CH220206</t>
+  </si>
+  <si>
+    <t>CH220207</t>
+  </si>
+  <si>
+    <t>CH220208</t>
+  </si>
+  <si>
+    <t>CH220209</t>
+  </si>
+  <si>
+    <t>CH220210</t>
+  </si>
+  <si>
+    <t>CH220211</t>
+  </si>
+  <si>
+    <t>CH220212</t>
+  </si>
+  <si>
+    <t>CH220213</t>
+  </si>
+  <si>
+    <t>CH220214</t>
+  </si>
+  <si>
+    <t>CH220215</t>
+  </si>
+  <si>
+    <t>CH220216</t>
+  </si>
+  <si>
+    <t>CH220217</t>
+  </si>
+  <si>
+    <t>CH220218</t>
+  </si>
+  <si>
+    <t>CH220219</t>
+  </si>
+  <si>
+    <t>CH220220</t>
+  </si>
+  <si>
+    <t>CH220221</t>
+  </si>
+  <si>
+    <t>CH220222</t>
+  </si>
+  <si>
+    <t>CH220223</t>
+  </si>
+  <si>
+    <t>CH220224</t>
+  </si>
+  <si>
+    <t>CH220225</t>
+  </si>
+  <si>
+    <t>CH220226</t>
+  </si>
+  <si>
+    <t>CH220227</t>
+  </si>
+  <si>
+    <t>CH220228</t>
+  </si>
+  <si>
+    <t>CH220229</t>
+  </si>
+  <si>
+    <t>CH220230</t>
+  </si>
+  <si>
+    <t>CH220231</t>
+  </si>
+  <si>
+    <t>CH220232</t>
+  </si>
+  <si>
+    <t>CH220233</t>
+  </si>
+  <si>
+    <t>CH220234</t>
+  </si>
+  <si>
+    <t>CH220235</t>
+  </si>
+  <si>
+    <t>CH220236</t>
+  </si>
+  <si>
+    <t>CH220237</t>
+  </si>
+  <si>
+    <t>CH220238</t>
+  </si>
+  <si>
+    <t>CH220239</t>
+  </si>
+  <si>
+    <t>CH220240</t>
+  </si>
+  <si>
+    <t>CH220241</t>
+  </si>
+  <si>
+    <t>CH220242</t>
+  </si>
+  <si>
+    <t>CH220243</t>
+  </si>
+  <si>
+    <t>CH220244</t>
+  </si>
+  <si>
+    <t>CH220245</t>
+  </si>
+  <si>
+    <t>CH220246</t>
+  </si>
+  <si>
+    <t>CH220247</t>
+  </si>
+  <si>
+    <t>CH220248</t>
+  </si>
+  <si>
+    <t>CH220249</t>
+  </si>
+  <si>
+    <t>CH220250</t>
+  </si>
+  <si>
+    <t>CH220251</t>
+  </si>
+  <si>
+    <t>CH220252</t>
+  </si>
+  <si>
+    <t>CH220253</t>
+  </si>
+  <si>
+    <t>CH220254</t>
+  </si>
+  <si>
+    <t>CH220255</t>
+  </si>
+  <si>
+    <t>CH220256</t>
+  </si>
+  <si>
+    <t>CH220257</t>
+  </si>
+  <si>
+    <t>CH220258</t>
+  </si>
+  <si>
+    <t>CH220259</t>
+  </si>
+  <si>
+    <t>CH220260</t>
+  </si>
+  <si>
+    <t>CH220261</t>
+  </si>
+  <si>
+    <t>CH220262</t>
+  </si>
+  <si>
+    <t>CH220263</t>
+  </si>
+  <si>
+    <t>CH220264</t>
+  </si>
+  <si>
+    <t>CH220265</t>
+  </si>
+  <si>
+    <t>CH220266</t>
+  </si>
+  <si>
+    <t>CH220267</t>
+  </si>
+  <si>
+    <t>CH220268</t>
+  </si>
+  <si>
+    <t>CH220269</t>
+  </si>
+  <si>
+    <t>CH220270</t>
+  </si>
+  <si>
+    <t>CH220271</t>
+  </si>
+  <si>
+    <t>CH220272</t>
+  </si>
+  <si>
+    <t>CH220273</t>
+  </si>
+  <si>
+    <t>CH220274</t>
+  </si>
+  <si>
+    <t>CH220275</t>
+  </si>
+  <si>
+    <t>CH220276</t>
+  </si>
+  <si>
+    <t>CH220277</t>
+  </si>
+  <si>
+    <t>CH220278</t>
+  </si>
+  <si>
+    <t>CH220279</t>
+  </si>
+  <si>
+    <t>CH220280</t>
+  </si>
+  <si>
+    <t>CH220281</t>
+  </si>
+  <si>
+    <t>CH220282</t>
+  </si>
+  <si>
+    <t>CH220283</t>
+  </si>
+  <si>
+    <t>CH220284</t>
+  </si>
+  <si>
+    <t>CH220285</t>
+  </si>
+  <si>
+    <t>CH220286</t>
+  </si>
+  <si>
+    <t>CH220287</t>
+  </si>
+  <si>
+    <t>CH220288</t>
+  </si>
+  <si>
+    <t>CH220289</t>
+  </si>
+  <si>
+    <t>CH220290</t>
+  </si>
+  <si>
+    <t>CH220291</t>
+  </si>
+  <si>
+    <t>CH220292</t>
+  </si>
+  <si>
+    <t>CH220293</t>
+  </si>
+  <si>
+    <t>CH220294</t>
+  </si>
+  <si>
+    <t>CH220295</t>
+  </si>
+  <si>
+    <t>CH220296</t>
+  </si>
+  <si>
+    <t>CH220297</t>
+  </si>
+  <si>
+    <t>CH220298</t>
+  </si>
+  <si>
+    <t>CH220299</t>
+  </si>
+  <si>
+    <t>CH220300</t>
+  </si>
+  <si>
+    <t>CH220301</t>
+  </si>
+  <si>
+    <t>CH220302</t>
+  </si>
+  <si>
+    <t>CH220303</t>
+  </si>
+  <si>
+    <t>CH220304</t>
+  </si>
+  <si>
+    <t>CH220305</t>
+  </si>
+  <si>
+    <t>CH220306</t>
+  </si>
+  <si>
+    <t>CH220307</t>
+  </si>
+  <si>
+    <t>CH220308</t>
+  </si>
+  <si>
+    <t>CH220309</t>
+  </si>
+  <si>
+    <t>CH220310</t>
+  </si>
+  <si>
+    <t>CH220311</t>
+  </si>
+  <si>
+    <t>CH220312</t>
+  </si>
+  <si>
+    <t>CH220313</t>
+  </si>
+  <si>
+    <t>CH220314</t>
+  </si>
+  <si>
+    <t>CH220315</t>
+  </si>
+  <si>
+    <t>CH220316</t>
+  </si>
+  <si>
+    <t>CH220317</t>
+  </si>
+  <si>
+    <t>CH220318</t>
+  </si>
+  <si>
+    <t>CH220319</t>
+  </si>
+  <si>
+    <t>CH220320</t>
+  </si>
+  <si>
+    <t>CH220321</t>
+  </si>
+  <si>
+    <t>CH220322</t>
+  </si>
+  <si>
+    <t>CH220323</t>
+  </si>
+  <si>
+    <t>CH220324</t>
+  </si>
+  <si>
+    <t>CH220325</t>
+  </si>
+  <si>
+    <t>CH220326</t>
+  </si>
+  <si>
+    <t>CH220327</t>
+  </si>
+  <si>
+    <t>CH220328</t>
+  </si>
+  <si>
+    <t>CH220329</t>
+  </si>
+  <si>
+    <t>CH220330</t>
+  </si>
+  <si>
+    <t>CH220331</t>
+  </si>
+  <si>
+    <t>CH220332</t>
+  </si>
+  <si>
+    <t>CH220333</t>
+  </si>
+  <si>
+    <t>CH220334</t>
+  </si>
+  <si>
+    <t>CH220335</t>
+  </si>
+  <si>
+    <t>CH220336</t>
+  </si>
+  <si>
+    <t>CH220337</t>
+  </si>
+  <si>
+    <t>CH220338</t>
+  </si>
+  <si>
+    <t>CH220339</t>
+  </si>
+  <si>
+    <t>CH220340</t>
+  </si>
+  <si>
+    <t>CH220341</t>
+  </si>
+  <si>
+    <t>CH220342</t>
+  </si>
+  <si>
+    <t>CH220343</t>
+  </si>
+  <si>
+    <t>CH220344</t>
+  </si>
+  <si>
+    <t>CH220345</t>
+  </si>
+  <si>
+    <t>CH220346</t>
+  </si>
+  <si>
+    <t>CH220347</t>
+  </si>
+  <si>
+    <t>CH220348</t>
+  </si>
+  <si>
+    <t>CH220349</t>
+  </si>
+  <si>
+    <t>CH220350</t>
+  </si>
+  <si>
+    <t>CH220351</t>
+  </si>
+  <si>
+    <t>CH220352</t>
+  </si>
+  <si>
+    <t>CH220353</t>
+  </si>
+  <si>
+    <t>CH220354</t>
+  </si>
+  <si>
+    <t>CH220355</t>
+  </si>
+  <si>
+    <t>CH220356</t>
+  </si>
+  <si>
+    <t>CH220357</t>
+  </si>
+  <si>
+    <t>CH220358</t>
+  </si>
+  <si>
+    <t>CH220359</t>
+  </si>
+  <si>
+    <t>CH220360</t>
+  </si>
+  <si>
+    <t>CH220361</t>
+  </si>
+  <si>
+    <t>CH220362</t>
+  </si>
+  <si>
+    <t>CH220363</t>
+  </si>
+  <si>
+    <t>CH220364</t>
+  </si>
+  <si>
+    <t>CH220365</t>
+  </si>
+  <si>
+    <t>CH220366</t>
+  </si>
+  <si>
+    <t>CH220367</t>
+  </si>
+  <si>
+    <t>CH220368</t>
+  </si>
+  <si>
+    <t>CH220369</t>
+  </si>
+  <si>
+    <t>CH220370</t>
+  </si>
+  <si>
+    <t>CH220371</t>
+  </si>
+  <si>
+    <t>CH220372</t>
+  </si>
+  <si>
+    <t>CH220373</t>
+  </si>
+  <si>
+    <t>CH220374</t>
+  </si>
+  <si>
+    <t>CH220375</t>
+  </si>
+  <si>
+    <t>CH220376</t>
+  </si>
+  <si>
+    <t>CH220377</t>
+  </si>
+  <si>
+    <t>CH220378</t>
+  </si>
+  <si>
+    <t>CH220379</t>
+  </si>
+  <si>
+    <t>CH220380</t>
+  </si>
+  <si>
+    <t>CH220381</t>
+  </si>
+  <si>
+    <t>CH220382</t>
+  </si>
+  <si>
+    <t>CH220383</t>
+  </si>
+  <si>
+    <t>CH220384</t>
+  </si>
+  <si>
+    <t>CH220385</t>
+  </si>
+  <si>
+    <t>CH220386</t>
+  </si>
+  <si>
+    <t>CH220387</t>
+  </si>
+  <si>
+    <t>CH220388</t>
+  </si>
+  <si>
+    <t>CH220389</t>
+  </si>
+  <si>
+    <t>CH220390</t>
+  </si>
+  <si>
+    <t>CH220391</t>
+  </si>
+  <si>
+    <t>CH220392</t>
+  </si>
+  <si>
+    <t>CH220393</t>
+  </si>
+  <si>
+    <t>CH220394</t>
+  </si>
+  <si>
+    <t>CH220395</t>
+  </si>
+  <si>
+    <t>CH220396</t>
+  </si>
+  <si>
+    <t>CH220397</t>
+  </si>
+  <si>
+    <t>CH220398</t>
+  </si>
+  <si>
+    <t>CH220399</t>
+  </si>
+  <si>
+    <t>CH220400</t>
+  </si>
+  <si>
+    <t>CH220401</t>
+  </si>
+  <si>
+    <t>CH220402</t>
+  </si>
+  <si>
+    <t>CH220403</t>
+  </si>
+  <si>
+    <t>CH220404</t>
+  </si>
+  <si>
+    <t>CH220405</t>
+  </si>
+  <si>
+    <t>CH220406</t>
+  </si>
+  <si>
+    <t>CH220407</t>
+  </si>
+  <si>
+    <t>CH220408</t>
+  </si>
+  <si>
+    <t>CH220409</t>
+  </si>
+  <si>
+    <t>CH220410</t>
+  </si>
+  <si>
+    <t>CH220411</t>
+  </si>
+  <si>
+    <t>CH220412</t>
+  </si>
+  <si>
+    <t>CH220413</t>
+  </si>
+  <si>
+    <t>CH220414</t>
+  </si>
+  <si>
+    <t>CH220415</t>
+  </si>
+  <si>
+    <t>CH220416</t>
+  </si>
+  <si>
+    <t>CH220417</t>
+  </si>
+  <si>
+    <t>CH220418</t>
+  </si>
+  <si>
+    <t>CH220419</t>
+  </si>
+  <si>
+    <t>CH220420</t>
+  </si>
+  <si>
+    <t>CH220421</t>
+  </si>
+  <si>
+    <t>CH220422</t>
+  </si>
+  <si>
+    <t>CH220423</t>
+  </si>
+  <si>
+    <t>CH220424</t>
+  </si>
+  <si>
+    <t>CH220425</t>
+  </si>
+  <si>
+    <t>CH220426</t>
+  </si>
+  <si>
+    <t>CH220427</t>
+  </si>
+  <si>
+    <t>CH220428</t>
+  </si>
+  <si>
+    <t>CH220429</t>
+  </si>
+  <si>
+    <t>CH220430</t>
+  </si>
+  <si>
+    <t>CH220431</t>
+  </si>
+  <si>
+    <t>CH220432</t>
+  </si>
+  <si>
+    <t>CH220433</t>
+  </si>
+  <si>
+    <t>CH220434</t>
   </si>
 </sst>
 </file>
@@ -7767,11 +9063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2257"/>
+  <dimension ref="A1:D2691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2218" sqref="D2218"/>
+      <pane ySplit="1" topLeftCell="A2667" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2257" sqref="B2257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32964,6 +34260,4774 @@
       </c>
       <c r="C2257" t="s">
         <v>2298</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2258" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2259" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2260" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2261" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2262" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2263" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2264" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2265" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2266" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2267" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2268" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2269" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2270" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2271" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2272" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2273" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2274" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2275" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2276" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2277" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2278" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2279" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2280" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2281" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2282" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2283" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2284" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2285" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2286" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2287" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2288" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2289" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2290" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2291" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2292" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2293" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2294" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2295" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2296" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2297" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2298" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2299" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2300" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2301" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2302" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2303" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2304" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2305" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2306" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2307" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2308" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2309" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2310" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2311" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2312" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2313" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2314" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2315" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2316" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2317" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2318" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2319" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2320" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2321" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2322" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2323" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2324" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2325" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2326" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2327" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2328" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2329" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2330" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2331" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2332" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2333" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2334" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2335" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2336" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2337" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2338" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2339" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2340" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2341" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2342" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2343" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2344" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2345" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2346" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2347" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2348" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2349" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2350" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2351" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2352" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2353" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2354" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2355" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2356" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2357" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2358" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2359" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2360" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2361" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2362" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2363" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2364" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2365" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2366" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2367" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2368" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2369" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2370" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2371" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2372" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2373" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2374" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2375" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2376" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2377" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2378" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2379" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2380" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2381" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2382" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2383" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2384" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2385" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2386" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2387" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2388" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2389" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2390" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2391" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2392" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2393" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2394" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2395" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2396" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2397" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2398" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2399" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2400" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2401" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2402" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2403" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2404" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2405" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2406" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2407" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2408" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2409" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2410" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2411" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2412" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2413" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2414" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2415" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2416" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2417" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2418" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2419" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2420" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2421" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2422" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2423" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2424" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2425" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2426" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2427" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2428" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2429" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2430" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2431" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2432" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2433" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2434" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2435" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2436" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2437" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2438" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2439" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2440" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2441" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2442" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2443" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2444" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2445" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2446" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2447" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2448" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2449" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2450" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2451" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2452" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2453" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2454" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2455" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2456" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2457" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2458" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2459" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2460" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2461" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2462" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2463" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2464" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2465" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2466" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2467" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2468" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2469" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2470" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2471" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2472" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2473" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2474" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2475" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2476" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2477" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2478" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2479" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2480" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2481" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2482" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2483" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2484" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2485" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2486" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2487" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2488" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2489" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2490" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2491" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2492" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2493" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2494" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2495" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2496" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2497" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2498" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2499" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2500" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2501" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2502" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2503" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2504" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2505" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2506" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2507" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2508" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2509" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2510" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2511" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2512" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2513" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2514" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2515" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2516" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2517" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2518" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2519" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2520" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2521" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2522" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2523" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2524" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2525" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2526" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2527" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2528" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2529" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2530" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2531" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2532" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2533" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2534" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2535" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2536" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2537" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2538" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2539" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2540" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2541" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2542" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2543" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2544" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2545" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2546" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2547" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2548" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2549" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2550" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2551" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2552" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2553" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2554" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2555" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2556" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2557" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2558" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2559" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2560" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2561" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2562" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2563" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2564" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2565" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2566" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2567" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2568" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2569" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2570" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2571" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2572" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2573" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2574" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2575" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2576" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2577" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2578" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2579" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2580" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2581" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2582" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2583" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2584" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2585" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2586" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2587" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2588" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2589" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2590" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2591" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2592" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2593" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2594" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2595" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2596" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2597" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2598" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2599" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2600" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2601" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2602" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2603" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2604" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2605" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2606" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2607" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2608" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2609" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2610" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2611" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2612" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2613" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2614" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2615" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2616" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2617" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2618" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2619" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2620" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2621" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2622" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2623" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2624" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2625" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2626" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2627" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2628" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2629" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2630" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2631" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2632" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2633" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2634" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2635" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2636" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2637" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2638" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2639" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2640" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2641" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2642" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2643" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2644" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2645" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2646" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2647" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2648" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2649" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2650" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2651" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2652" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2653" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2654" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2655" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2656" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2657" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2658" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2659" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2660" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2661" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2662" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2663" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2664" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2665" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2666" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2667" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2668" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2669" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2670" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2671" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2672" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2673" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2674" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2675" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2676" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2677" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2678" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2679" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2680" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2681" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2682" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2683" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2684" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2685" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2686" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2687" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2688" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2689" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2690" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2691" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>2730</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/samplinglist_updated.xlsx
+++ b/raw data/samplinglist_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/athellma_ad_unc_edu/Documents/Documents/Duke University/Research/_HBEF/chla/hbef_chla/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{50E0B27C-21EE-4777-9358-B248CE205576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECDABC4-3BD1-445F-A94F-C89B760C7B32}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{50E0B27C-21EE-4777-9358-B248CE205576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DDC0C5-A7B0-414D-B49D-FF0BF9EF718B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9066,8 +9066,8 @@
   <dimension ref="A1:D2691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2257" sqref="B2257"/>
+      <pane ySplit="1" topLeftCell="A1526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1528" sqref="N1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26410,7 +26410,7 @@
     </row>
     <row r="1544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1544" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1544" t="s">
         <v>3</v>
@@ -26421,7 +26421,7 @@
     </row>
     <row r="1545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1545" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1545" t="s">
         <v>7</v>
@@ -26432,7 +26432,7 @@
     </row>
     <row r="1546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1546" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1546" t="s">
         <v>11</v>
@@ -26443,7 +26443,7 @@
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1547" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1547" t="s">
         <v>15</v>
@@ -26454,7 +26454,7 @@
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1548" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1548" t="s">
         <v>19</v>
@@ -26465,7 +26465,7 @@
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1549" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1549" t="s">
         <v>23</v>
@@ -26476,7 +26476,7 @@
     </row>
     <row r="1550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1550" s="1">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B1550" t="s">
         <v>51</v>
